--- a/amazon dashboard.xlsx
+++ b/amazon dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\my files\Excel dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204006B1-F55E-4B8D-AB62-48E1931D612B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A14263-E6E7-4434-8A77-83C5BF019526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
   <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="5" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -3338,7 +3338,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>240</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3451,7 +3451,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>310</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5667,49 +5667,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>bar!$A$4:$A$17</c:f>
+              <c:f>bar!$A$4:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6</c:v>
+                  <c:v>4.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2</c:v>
+                  <c:v>4.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>4.9</c:v>
                 </c:pt>
               </c:strCache>
@@ -5717,10 +5705,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bar!$B$4:$B$17</c:f>
+              <c:f>bar!$B$4:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5728,40 +5716,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>52</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8524,15 +8500,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>402167</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>74083</xdr:rowOff>
+      <xdr:colOff>349251</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:colOff>232834</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8547,8 +8523,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8382000" y="4074583"/>
-          <a:ext cx="1725083" cy="719666"/>
+          <a:off x="8329084" y="3820583"/>
+          <a:ext cx="1725083" cy="709084"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8686,8 +8662,8 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>300568</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>148166</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
@@ -8708,10 +8684,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="914401" y="148166"/>
-          <a:ext cx="12517967" cy="1206500"/>
-          <a:chOff x="935567" y="105833"/>
-          <a:chExt cx="12517967" cy="1206500"/>
+          <a:off x="914401" y="222250"/>
+          <a:ext cx="12517967" cy="1132416"/>
+          <a:chOff x="935567" y="179917"/>
+          <a:chExt cx="12517967" cy="1132416"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -9124,7 +9100,7 @@
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>4.6</a:t>
+                <a:t>4.5</a:t>
               </a:fld>
               <a:endParaRPr lang="en-IN" sz="7200" b="1"/>
             </a:p>
@@ -9182,7 +9158,7 @@
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>7205</a:t>
+                <a:t>511</a:t>
               </a:fld>
               <a:endParaRPr lang="en-IN" sz="9600" b="1"/>
             </a:p>
@@ -9240,7 +9216,7 @@
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>6574 K</a:t>
+                <a:t>188 K</a:t>
               </a:fld>
               <a:endParaRPr lang="en-IN" sz="16600" b="1"/>
             </a:p>
@@ -9497,7 +9473,7 @@
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="r"/>
-                <a:t>550</a:t>
+                <a:t>29</a:t>
               </a:fld>
               <a:endParaRPr lang="en-IN" sz="4000" b="1"/>
             </a:p>
@@ -9620,50 +9596,6 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="54" name="amazon logo">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC74AA3C-2F0A-451F-A0FB-A5248395BFCB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-            <a:clrChange>
-              <a:clrFrom>
-                <a:srgbClr val="FFFDFF"/>
-              </a:clrFrom>
-              <a:clrTo>
-                <a:srgbClr val="FFFDFF">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:clrTo>
-            </a:clrChange>
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect l="12778" t="14074" r="11111" b="31111"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1005417" y="105833"/>
-            <a:ext cx="1763411" cy="1068916"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -9694,7 +9626,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:duotone>
             <a:prstClr val="black"/>
             <a:schemeClr val="tx2">
@@ -9751,7 +9683,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -9787,6 +9719,75 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>582082</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>564092</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>150243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47" descr="Amazon Logo and symbol, meaning, history, PNG, brand">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A56706D5-7C69-4115-AA1A-BE0C29B8F4C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="22121" r="23030"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1195915" y="190500"/>
+          <a:ext cx="1209677" cy="1102743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -22467,7 +22468,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98AE543F-2BA4-4705-B0C7-E20C6CEB5B87}" name="barchart" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0">
       <items count="551">
@@ -23049,23 +23050,23 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="12">
-        <item x="7"/>
-        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
         <item x="1"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
+        <item h="1" x="10"/>
+        <item h="1" x="9"/>
+        <item h="1" x="5"/>
+        <item h="1" x="8"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -23074,19 +23075,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="14">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
+  <rowItems count="10">
     <i>
       <x v="4"/>
     </i>
@@ -23159,17 +23148,17 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="12">
-        <item x="7"/>
-        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
         <item x="1"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
+        <item h="1" x="10"/>
+        <item h="1" x="9"/>
+        <item h="1" x="5"/>
+        <item h="1" x="8"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -23257,23 +23246,23 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0">
       <items count="12">
-        <item x="7"/>
-        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
         <item x="1"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
+        <item h="1" x="10"/>
+        <item h="1" x="9"/>
+        <item h="1" x="5"/>
+        <item h="1" x="8"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -23318,7 +23307,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9652B7B-788D-4D4C-8026-30D4C02BBCFD}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9652B7B-788D-4D4C-8026-30D4C02BBCFD}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -23382,17 +23371,17 @@
   <data>
     <tabular pivotCacheId="907883577">
       <items count="11">
-        <i x="7" s="1"/>
-        <i x="6" s="1"/>
+        <i x="7"/>
+        <i x="6"/>
         <i x="1" s="1"/>
-        <i x="10" s="1"/>
-        <i x="9" s="1"/>
-        <i x="5" s="1"/>
-        <i x="8" s="1"/>
-        <i x="0" s="1"/>
-        <i x="3" s="1"/>
-        <i x="2" s="1"/>
-        <i x="4" s="1"/>
+        <i x="10"/>
+        <i x="9"/>
+        <i x="5"/>
+        <i x="8"/>
+        <i x="0"/>
+        <i x="3"/>
+        <i x="2"/>
+        <i x="4"/>
       </items>
     </tabular>
   </data>
@@ -23408,7 +23397,7 @@
   <data>
     <tabular pivotCacheId="907883577">
       <items count="2">
-        <i x="1" s="1"/>
+        <i x="1"/>
         <i x="0" s="1"/>
       </items>
     </tabular>
@@ -23756,7 +23745,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -23769,7 +23758,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>3.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -23779,17 +23768,17 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="B6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -23799,101 +23788,77 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B8" s="4">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="B9" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B10" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="B11" s="4">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="B12" s="4">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>4.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B13" s="4">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B14" s="4">
-        <v>105</v>
-      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>4.7</v>
-      </c>
-      <c r="B15" s="4">
-        <v>108</v>
-      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>4.8</v>
-      </c>
-      <c r="B16" s="4">
-        <v>127</v>
-      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B17" s="4">
-        <v>52</v>
-      </c>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
     </row>
@@ -24286,10 +24251,10 @@
         <v>610</v>
       </c>
       <c r="B5" s="4">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4">
-        <v>310</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
         <v>615</v>
@@ -24521,16 +24486,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>550</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5">
-        <v>4.6183636363636413</v>
+        <v>4.5137931034482763</v>
       </c>
       <c r="C4" s="4">
-        <v>7205</v>
+        <v>511</v>
       </c>
       <c r="D4" s="15">
-        <v>6574305</v>
+        <v>188000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -24554,19 +24519,19 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>A4</f>
-        <v>550</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" ref="B6:D6" si="1">B4</f>
-        <v>4.6183636363636413</v>
+        <v>4.5137931034482763</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>7205</v>
+        <v>511</v>
       </c>
       <c r="D6" s="15">
         <f t="shared" si="1"/>
-        <v>6574305</v>
+        <v>188000</v>
       </c>
     </row>
   </sheetData>
@@ -39014,7 +38979,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39039,7 +39004,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
